--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_45.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_45.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4539473684210527</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>jaah_31</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2443181818181818</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F'], ['C', 'F', 'C']]</t>
+          <t>[['G:7', 'C', 'C', 'G:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.337709, 19.847823), (0.344657, 11.337709)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.717289, 14.199024), (10.634761, 15.986961)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:06.040000', '0:00:13.240000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07054054054054054</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3197674418604651</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['G:maj', 'C:maj', 'G/3', 'G:maj', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.440395, 6.879478)]</t>
+          <t>[['A', 'D', 'A', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.7, 12.06)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:39.093000', '0:00:47.902000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:28.450816', '0:00:43.926916')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1005494505494506</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(28.450816, 36.229501)]</t>
+          <t>[['Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(54.18, 61.46)]</t>
+          <t>[('0:01:14.743356', '0:01:28.210929')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:49.496575', '0:00:52.694149')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>jaah_27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0583976833976834</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
+          <t>[['D', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(54.62, 62.28)]</t>
+          <t>[['Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.38418, 21.737596)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.230000', '0:00:03.500000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:06.879478')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06903534609720177</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:02.557446', '0:00:06.319079')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:06.126439', '0:00:09.980952')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1607142857142857</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.252358, 5.805011)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.184, 18.837)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08482142857142858</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G'], ['D', 'G', 'D']]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.776621, 32.769727), (1.829138, 15.586961)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.440395, 9.431879), (1.014823, 12.241493)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1399594320486816</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(88.58347, 93.575761)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(86.64, 90.6)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5052631578947369</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.634761, 19.597664)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(142.14, 147.86)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2385964912280702</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(23.632675, 27.452358)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05432692307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.829138, 15.586961)]</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1072492552135055</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'G'], ['G/5', 'C/9', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'D'], ['D', 'G/5', 'D']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(50.604263, 57.976598), (0.727609, 8.204625)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(39.758934, 43.938526), (19.708503, 25.501882)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09528535980148883</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7', 'D']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.3, 63.84)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(62.932448, 72.777709)]</t>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06785714285714287</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(23.04, 26.52)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(17.833, 21.409)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_70</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.54, 3.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.92, 8.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
